--- a/Glossary template - APG 5885 - Sem 1, 2021 - SEU.xlsx
+++ b/Glossary template - APG 5885 - Sem 1, 2021 - SEU.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hongtao45\Desktop\Translator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6CCB14F-64FA-4B74-9E23-FA266D0C13CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F2BC245-89D5-492E-BE43-AFF24ACF7A54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="W1 - Employment" sheetId="1" r:id="rId1"/>
@@ -8014,9 +8014,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -8031,6 +8028,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -8385,44 +8385,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
     </row>
     <row r="2" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8" t="s">
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
     </row>
     <row r="3" spans="1:6" s="6" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="9" t="s">
         <v>1954</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="8" t="s">
         <v>1955</v>
       </c>
     </row>
@@ -9432,7 +9432,7 @@
       <c r="A80" s="4" t="s">
         <v>896</v>
       </c>
-      <c r="B80" s="11"/>
+      <c r="B80" s="10"/>
       <c r="C80" s="4"/>
       <c r="D80" s="4" t="s">
         <v>897</v>
@@ -9745,44 +9745,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
     </row>
     <row r="2" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8" t="s">
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
     </row>
     <row r="3" spans="1:6" s="2" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="8" t="s">
         <v>2</v>
       </c>
     </row>
@@ -10060,7 +10060,7 @@
       <c r="A25" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="B25" s="12" t="s">
+      <c r="B25" s="11" t="s">
         <v>168</v>
       </c>
       <c r="C25" s="4"/>
@@ -10074,7 +10074,7 @@
       <c r="A26" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="B26" s="12" t="s">
+      <c r="B26" s="11" t="s">
         <v>170</v>
       </c>
       <c r="C26" s="4"/>
@@ -10088,7 +10088,7 @@
       <c r="A27" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="B27" s="12" t="s">
+      <c r="B27" s="11" t="s">
         <v>173</v>
       </c>
       <c r="C27" s="4"/>
@@ -10102,7 +10102,7 @@
       <c r="A28" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="B28" s="12" t="s">
+      <c r="B28" s="11" t="s">
         <v>176</v>
       </c>
       <c r="C28" s="4"/>
@@ -10128,7 +10128,7 @@
       <c r="A30" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="B30" s="12" t="s">
+      <c r="B30" s="11" t="s">
         <v>179</v>
       </c>
       <c r="C30" s="4"/>
@@ -10484,7 +10484,7 @@
       <c r="A57" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="B57" s="12" t="s">
+      <c r="B57" s="11" t="s">
         <v>219</v>
       </c>
       <c r="C57" s="4"/>
@@ -10498,7 +10498,7 @@
       <c r="A58" s="4" t="s">
         <v>905</v>
       </c>
-      <c r="B58" s="12" t="s">
+      <c r="B58" s="11" t="s">
         <v>906</v>
       </c>
       <c r="C58" s="4"/>
@@ -10512,7 +10512,7 @@
       <c r="A59" s="4" t="s">
         <v>221</v>
       </c>
-      <c r="B59" s="12" t="s">
+      <c r="B59" s="11" t="s">
         <v>223</v>
       </c>
       <c r="C59" s="4"/>
@@ -10526,7 +10526,7 @@
       <c r="A60" s="4" t="s">
         <v>835</v>
       </c>
-      <c r="B60" s="12" t="s">
+      <c r="B60" s="11" t="s">
         <v>850</v>
       </c>
       <c r="C60" s="4"/>
@@ -10540,7 +10540,7 @@
       <c r="A61" s="4" t="s">
         <v>834</v>
       </c>
-      <c r="B61" s="12" t="s">
+      <c r="B61" s="11" t="s">
         <v>903</v>
       </c>
       <c r="C61" s="4"/>
@@ -10554,7 +10554,7 @@
       <c r="A62" s="4" t="s">
         <v>224</v>
       </c>
-      <c r="B62" s="12" t="s">
+      <c r="B62" s="11" t="s">
         <v>226</v>
       </c>
       <c r="C62" s="4"/>
@@ -10568,7 +10568,7 @@
       <c r="A63" s="4" t="s">
         <v>904</v>
       </c>
-      <c r="B63" s="12" t="s">
+      <c r="B63" s="11" t="s">
         <v>907</v>
       </c>
       <c r="C63" s="4"/>
@@ -10582,7 +10582,7 @@
       <c r="A64" s="4" t="s">
         <v>909</v>
       </c>
-      <c r="B64" s="12" t="s">
+      <c r="B64" s="11" t="s">
         <v>910</v>
       </c>
       <c r="C64" s="4"/>
@@ -10596,7 +10596,7 @@
       <c r="A65" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="B65" s="12" t="s">
+      <c r="B65" s="11" t="s">
         <v>912</v>
       </c>
       <c r="C65" s="4"/>
@@ -10610,7 +10610,7 @@
       <c r="A66" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="B66" s="12" t="s">
+      <c r="B66" s="11" t="s">
         <v>967</v>
       </c>
       <c r="C66" s="4"/>
@@ -10624,7 +10624,7 @@
       <c r="A67" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="B67" s="12" t="s">
+      <c r="B67" s="11" t="s">
         <v>969</v>
       </c>
       <c r="C67" s="4"/>
@@ -10638,7 +10638,7 @@
       <c r="A68" s="4" t="s">
         <v>954</v>
       </c>
-      <c r="B68" s="12" t="s">
+      <c r="B68" s="11" t="s">
         <v>955</v>
       </c>
       <c r="C68" s="4"/>
@@ -10956,7 +10956,7 @@
       <c r="A94" s="4" t="s">
         <v>964</v>
       </c>
-      <c r="B94" s="13" t="s">
+      <c r="B94" s="12" t="s">
         <v>235</v>
       </c>
       <c r="C94" s="4"/>
@@ -11065,44 +11065,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
     </row>
     <row r="2" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8" t="s">
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
     </row>
     <row r="3" spans="1:6" s="2" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="8" t="s">
         <v>2</v>
       </c>
     </row>
@@ -12458,45 +12458,45 @@
     <col min="5" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-    </row>
-    <row r="2" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="8" t="s">
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+    </row>
+    <row r="2" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8" t="s">
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-    </row>
-    <row r="3" spans="1:6" s="9" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="9" t="s">
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+    </row>
+    <row r="3" spans="1:6" s="8" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="8" t="s">
         <v>2</v>
       </c>
     </row>
@@ -13267,7 +13267,7 @@
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A78" s="14" t="s">
+      <c r="A78" s="13" t="s">
         <v>1469</v>
       </c>
       <c r="B78" s="4" t="s">
@@ -13545,10 +13545,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:F108"/>
+  <dimension ref="A1:F107"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D94" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -13561,1072 +13561,1072 @@
     <col min="6" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-    </row>
-    <row r="2" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="8" t="s">
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+    </row>
+    <row r="2" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8" t="s">
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-    </row>
-    <row r="3" spans="1:6" s="9" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="9" t="s">
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+    </row>
+    <row r="3" spans="1:6" s="8" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="8" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A4" s="4" t="s">
+        <v>1520</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>1522</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>1521</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>1522</v>
+        <v>1523</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>1521</v>
+        <v>1495</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
-        <v>1519</v>
+        <v>1524</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>1523</v>
+        <v>1525</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>1495</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" s="4" t="s">
-        <v>1524</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>1525</v>
+        <v>1527</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>1526</v>
+        <v>1528</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" s="4" t="s">
-        <v>1527</v>
+        <v>1529</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>1530</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>1528</v>
+        <v>1531</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" s="4" t="s">
-        <v>1529</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>1530</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>1531</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10" s="4" t="s">
-        <v>1532</v>
+        <v>1533</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>1534</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>1538</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11" s="4" t="s">
-        <v>1533</v>
+        <v>1539</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>1534</v>
+        <v>1540</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>1538</v>
+        <v>1541</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12" s="4" t="s">
-        <v>1539</v>
+        <v>1542</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>1540</v>
+        <v>1543</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>1541</v>
+        <v>1544</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13" s="4" t="s">
-        <v>1542</v>
+        <v>1545</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>1543</v>
+        <v>1546</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>1544</v>
+        <v>1547</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A14" s="4" t="s">
-        <v>1545</v>
+        <v>1548</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>1546</v>
+        <v>1549</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>1547</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A15" s="4" t="s">
-        <v>1548</v>
+        <v>1551</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>1549</v>
+        <v>1552</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>1550</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+        <v>1553</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>1551</v>
+        <v>1554</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>1552</v>
+        <v>1556</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>1553</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
+        <v>1555</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17" s="4" t="s">
-        <v>1554</v>
+        <v>1557</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>1556</v>
+        <v>1559</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>1555</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18" s="4" t="s">
-        <v>1557</v>
+        <v>1560</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>1559</v>
+        <v>1561</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>1558</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A19" s="4" t="s">
-        <v>1560</v>
+        <v>1563</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>1561</v>
+        <v>1564</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>1562</v>
+        <v>1565</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20" s="4" t="s">
-        <v>1563</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>1564</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>1565</v>
+        <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A21" s="4" t="s">
-        <v>39</v>
+        <v>1566</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>1567</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>1568</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A22" s="4" t="s">
-        <v>1566</v>
+        <v>1569</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>1567</v>
+        <v>1570</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>1568</v>
+        <v>1571</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A23" s="4" t="s">
-        <v>1569</v>
+        <v>1572</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>1570</v>
+        <v>1573</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>1571</v>
+        <v>1574</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A24" s="4" t="s">
-        <v>1572</v>
+        <v>1575</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>1573</v>
+        <v>1576</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>1574</v>
+        <v>1577</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A25" s="4" t="s">
-        <v>1575</v>
+        <v>1578</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>1576</v>
+        <v>1579</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>1577</v>
+        <v>1580</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A26" s="4" t="s">
-        <v>1578</v>
+        <v>1581</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>1579</v>
+        <v>1582</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>1580</v>
+        <v>1583</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A27" s="4" t="s">
-        <v>1581</v>
+        <v>1584</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>1582</v>
+        <v>1586</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>1583</v>
+        <v>1585</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A28" s="4" t="s">
-        <v>1584</v>
+        <v>1587</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>1586</v>
+        <v>1588</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>1585</v>
+        <v>1589</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A29" s="4" t="s">
-        <v>1587</v>
+        <v>1590</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>1588</v>
+        <v>1591</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>1589</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A30" s="4" t="s">
-        <v>1590</v>
+        <v>1593</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>1591</v>
+        <v>1595</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>1592</v>
+        <v>1594</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A31" s="4" t="s">
-        <v>1593</v>
+        <v>1596</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>1595</v>
+        <v>1597</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>1594</v>
+        <v>1598</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A32" s="4" t="s">
-        <v>1596</v>
+        <v>1602</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>1597</v>
+        <v>1603</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>1598</v>
+        <v>1604</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A33" s="4" t="s">
-        <v>1602</v>
+        <v>1605</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>1603</v>
+        <v>1606</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>1604</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A34" s="4" t="s">
-        <v>1605</v>
+        <v>1614</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>1606</v>
+        <v>1616</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>1607</v>
+        <v>1615</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A35" s="4" t="s">
-        <v>1614</v>
+        <v>1617</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>1616</v>
+        <v>1618</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>1615</v>
+        <v>1619</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A36" s="4" t="s">
-        <v>1617</v>
+        <v>1623</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>1618</v>
+        <v>1624</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>1619</v>
+        <v>1625</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A37" s="4" t="s">
-        <v>1623</v>
+        <v>1620</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>1624</v>
+        <v>1621</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>1625</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A38" s="4" t="s">
-        <v>1620</v>
+        <v>1611</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>1621</v>
+        <v>1612</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>1622</v>
+        <v>1613</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A39" s="4" t="s">
-        <v>1611</v>
+        <v>1599</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>1612</v>
+        <v>1600</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>1613</v>
+        <v>1601</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A40" s="4" t="s">
-        <v>1599</v>
+        <v>1608</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>1600</v>
+        <v>1609</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>1601</v>
+        <v>1610</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A41" s="4" t="s">
-        <v>1608</v>
+        <v>1626</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>1609</v>
+        <v>1627</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>1610</v>
+        <v>1628</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A42" s="4" t="s">
-        <v>1626</v>
+        <v>1629</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>1627</v>
+        <v>1630</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>1628</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A43" s="4" t="s">
-        <v>1629</v>
+        <v>1632</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>1630</v>
+        <v>1633</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>1631</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A44" s="4" t="s">
-        <v>1632</v>
+        <v>1635</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>1633</v>
+        <v>1636</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>1634</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A45" s="4" t="s">
-        <v>1635</v>
+        <v>1638</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>1636</v>
+        <v>1639</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>1637</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A46" s="4" t="s">
-        <v>1638</v>
+        <v>1643</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>1639</v>
+        <v>1644</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>1640</v>
+        <v>1645</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A47" s="4" t="s">
-        <v>1643</v>
+        <v>1316</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>1644</v>
+        <v>1641</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>1645</v>
+        <v>1642</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A48" s="4" t="s">
-        <v>1316</v>
+        <v>1646</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>1641</v>
+        <v>1647</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>1642</v>
+        <v>1648</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A49" s="4" t="s">
-        <v>1646</v>
-      </c>
-      <c r="B49" s="4" t="s">
-        <v>1647</v>
+        <v>1649</v>
+      </c>
+      <c r="B49" s="14" t="s">
+        <v>1650</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>1648</v>
+        <v>1651</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A50" s="4" t="s">
-        <v>1649</v>
-      </c>
-      <c r="B50" s="15" t="s">
-        <v>1650</v>
-      </c>
-      <c r="D50" s="4" t="s">
-        <v>1651</v>
+        <v>1652</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A51" s="4" t="s">
-        <v>1652</v>
+        <v>1653</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>1655</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>1654</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A52" s="4" t="s">
-        <v>1653</v>
+        <v>1656</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>1655</v>
+        <v>1659</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>1654</v>
+        <v>1657</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A53" s="4" t="s">
-        <v>1656</v>
+        <v>1658</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>1659</v>
+        <v>1660</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>1657</v>
+        <v>1661</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A54" s="4" t="s">
-        <v>1658</v>
+        <v>1662</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>1660</v>
+        <v>1663</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>1661</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A55" s="4" t="s">
-        <v>1662</v>
-      </c>
-      <c r="B55" s="4" t="s">
-        <v>1663</v>
-      </c>
-      <c r="D55" s="4" t="s">
-        <v>1664</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A56" s="4" t="s">
-        <v>1668</v>
+        <v>1665</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>1666</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>1667</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A57" s="4" t="s">
-        <v>1665</v>
+        <v>1681</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>1666</v>
+        <v>1682</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>1667</v>
+        <v>1683</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A58" s="4" t="s">
-        <v>1681</v>
+        <v>1678</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>1682</v>
+        <v>1679</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>1683</v>
+        <v>1680</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A59" s="4" t="s">
-        <v>1678</v>
+        <v>1675</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>1679</v>
+        <v>1676</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>1680</v>
+        <v>1677</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A60" s="4" t="s">
-        <v>1675</v>
+        <v>1672</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>1676</v>
+        <v>1673</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>1677</v>
+        <v>1674</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A61" s="4" t="s">
-        <v>1672</v>
+        <v>1669</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>1673</v>
+        <v>1670</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>1674</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A62" s="4" t="s">
-        <v>1669</v>
+        <v>1684</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>1670</v>
+        <v>1685</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>1671</v>
+        <v>1686</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A63" s="4" t="s">
-        <v>1684</v>
+        <v>1687</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>1685</v>
+        <v>1688</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>1686</v>
+        <v>1689</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A64" s="4" t="s">
-        <v>1687</v>
+        <v>1690</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>1688</v>
+        <v>1691</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>1689</v>
+        <v>1692</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A65" s="4" t="s">
-        <v>1690</v>
+        <v>1693</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>1691</v>
+        <v>1695</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>1692</v>
+        <v>1694</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A66" s="4" t="s">
-        <v>1693</v>
+        <v>1696</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>1695</v>
+        <v>1697</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>1694</v>
+        <v>1698</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A67" s="4" t="s">
-        <v>1696</v>
+        <v>1699</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>1697</v>
+        <v>1701</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>1698</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A68" s="4" t="s">
-        <v>1699</v>
+        <v>1702</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>1701</v>
+        <v>1704</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>1700</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A69" s="4" t="s">
-        <v>1702</v>
-      </c>
-      <c r="B69" s="4" t="s">
-        <v>1704</v>
-      </c>
-      <c r="D69" s="4" t="s">
-        <v>1703</v>
+        <v>1705</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A70" s="4" t="s">
-        <v>1705</v>
+        <v>1706</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>1707</v>
+      </c>
+      <c r="D70" s="4" t="s">
+        <v>1708</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A71" s="4" t="s">
-        <v>1706</v>
+        <v>1709</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>1707</v>
+        <v>1710</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>1708</v>
+        <v>1711</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A72" s="4" t="s">
-        <v>1709</v>
-      </c>
-      <c r="B72" s="4" t="s">
-        <v>1710</v>
-      </c>
-      <c r="D72" s="4" t="s">
-        <v>1711</v>
+        <v>41</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A73" s="4" t="s">
-        <v>41</v>
+        <v>1712</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>1714</v>
+      </c>
+      <c r="D73" s="4" t="s">
+        <v>1713</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A74" s="4" t="s">
-        <v>1712</v>
+        <v>1730</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>1714</v>
+        <v>1732</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>1713</v>
+        <v>1731</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A75" s="4" t="s">
-        <v>1730</v>
+        <v>1757</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>1732</v>
+        <v>1758</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>1731</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A76" s="4" t="s">
-        <v>1757</v>
-      </c>
-      <c r="B76" s="4" t="s">
-        <v>1758</v>
-      </c>
-      <c r="D76" s="4" t="s">
-        <v>1759</v>
+        <v>42</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A77" s="4" t="s">
-        <v>42</v>
+        <v>1764</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>1765</v>
+      </c>
+      <c r="D77" s="4" t="s">
+        <v>1766</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A78" s="4" t="s">
-        <v>1764</v>
+        <v>1770</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>1765</v>
+        <v>1771</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>1766</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A79" s="4" t="s">
-        <v>1770</v>
-      </c>
-      <c r="B79" s="4" t="s">
-        <v>1771</v>
-      </c>
-      <c r="D79" s="4" t="s">
-        <v>1772</v>
+        <v>43</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A80" s="4" t="s">
-        <v>43</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A81" s="4" t="s">
-        <v>1767</v>
+        <v>44</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A82" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A83" s="4" t="s">
-        <v>45</v>
+        <v>1754</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>1755</v>
+      </c>
+      <c r="D83" s="4" t="s">
+        <v>1756</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A84" s="4" t="s">
-        <v>1754</v>
-      </c>
-      <c r="B84" s="4" t="s">
-        <v>1755</v>
-      </c>
-      <c r="D84" s="4" t="s">
-        <v>1756</v>
+        <v>46</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A85" s="4" t="s">
-        <v>46</v>
+        <v>1760</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>1761</v>
+      </c>
+      <c r="D85" s="4" t="s">
+        <v>1762</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A86" s="4" t="s">
-        <v>1760</v>
-      </c>
-      <c r="B86" s="4" t="s">
-        <v>1761</v>
-      </c>
-      <c r="D86" s="4" t="s">
-        <v>1762</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A87" s="4" t="s">
-        <v>1763</v>
+        <v>47</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A88" s="4" t="s">
-        <v>47</v>
+        <v>1768</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>1769</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A89" s="4" t="s">
-        <v>1768</v>
-      </c>
-      <c r="B89" s="4" t="s">
-        <v>1769</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A90" s="4" t="s">
-        <v>1773</v>
+        <v>1753</v>
+      </c>
+      <c r="D90" s="4" t="s">
+        <v>1774</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A91" s="4" t="s">
-        <v>1753</v>
+        <v>1750</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>1752</v>
       </c>
       <c r="D91" s="4" t="s">
-        <v>1774</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A92" s="4" t="s">
-        <v>1750</v>
+        <v>1747</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>1752</v>
+        <v>1749</v>
       </c>
       <c r="D92" s="4" t="s">
-        <v>1751</v>
+        <v>1748</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A93" s="4" t="s">
-        <v>1747</v>
+        <v>1744</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>1749</v>
+        <v>1746</v>
       </c>
       <c r="D93" s="4" t="s">
-        <v>1748</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A94" s="4" t="s">
-        <v>1744</v>
+        <v>1741</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>1746</v>
+        <v>1742</v>
       </c>
       <c r="D94" s="4" t="s">
-        <v>1745</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A95" s="4" t="s">
-        <v>1741</v>
+        <v>686</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>1742</v>
+        <v>1739</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>1743</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A96" s="4" t="s">
-        <v>686</v>
+        <v>1736</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>1739</v>
+        <v>1737</v>
       </c>
       <c r="D96" s="4" t="s">
-        <v>1740</v>
+        <v>1738</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A97" s="4" t="s">
-        <v>1736</v>
+        <v>1733</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>1737</v>
+        <v>1734</v>
       </c>
       <c r="D97" s="4" t="s">
-        <v>1738</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A98" s="4" t="s">
-        <v>1733</v>
+        <v>1502</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>1734</v>
+        <v>1503</v>
       </c>
       <c r="D98" s="4" t="s">
-        <v>1735</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A99" s="4" t="s">
-        <v>1502</v>
+        <v>1725</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>1503</v>
+        <v>1726</v>
       </c>
       <c r="D99" s="4" t="s">
-        <v>1504</v>
+        <v>1727</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A100" s="4" t="s">
-        <v>1725</v>
+        <v>1728</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>1726</v>
+        <v>1650</v>
       </c>
       <c r="D100" s="4" t="s">
-        <v>1727</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A101" s="4" t="s">
-        <v>1728</v>
+        <v>1722</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>1650</v>
+        <v>1723</v>
       </c>
       <c r="D101" s="4" t="s">
-        <v>1729</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A102" s="4" t="s">
-        <v>1722</v>
-      </c>
-      <c r="B102" s="4" t="s">
-        <v>1723</v>
-      </c>
-      <c r="D102" s="4" t="s">
-        <v>1724</v>
+        <v>1721</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A103" s="4" t="s">
-        <v>1721</v>
+        <v>122</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A104" s="4" t="s">
-        <v>122</v>
+        <v>1718</v>
+      </c>
+      <c r="B104" s="4" t="s">
+        <v>1719</v>
+      </c>
+      <c r="D104" s="4" t="s">
+        <v>1720</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A105" s="4" t="s">
-        <v>1718</v>
+        <v>1715</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>1719</v>
+        <v>1716</v>
       </c>
       <c r="D105" s="4" t="s">
-        <v>1720</v>
+        <v>1717</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A106" s="4" t="s">
-        <v>1715</v>
-      </c>
-      <c r="B106" s="4" t="s">
-        <v>1716</v>
-      </c>
-      <c r="D106" s="4" t="s">
-        <v>1717</v>
+        <v>123</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A107" s="4" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A108" s="4" t="s">
         <v>1535</v>
       </c>
-      <c r="B108" s="4" t="s">
+      <c r="B107" s="4" t="s">
         <v>1536</v>
       </c>
-      <c r="D108" s="4" t="s">
+      <c r="D107" s="4" t="s">
         <v>1537</v>
       </c>
     </row>
@@ -14645,7 +14645,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2634035C-FCAD-42C8-90B8-A929CD14270F}">
   <dimension ref="A1:F103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A54" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+    <sheetView topLeftCell="A54" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <selection activeCell="B109" sqref="B109"/>
     </sheetView>
   </sheetViews>
@@ -14657,26 +14657,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
     </row>
     <row r="2" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8" t="s">
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
     </row>
     <row r="3" spans="1:6" s="2" customFormat="1" ht="108.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
@@ -15587,44 +15587,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
     </row>
     <row r="2" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8" t="s">
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
     </row>
     <row r="3" spans="1:6" s="2" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="8" t="s">
         <v>2</v>
       </c>
     </row>
@@ -16436,7 +16436,7 @@
       <c r="A62" s="4" t="s">
         <v>388</v>
       </c>
-      <c r="B62" s="12" t="s">
+      <c r="B62" s="11" t="s">
         <v>389</v>
       </c>
       <c r="C62" s="4"/>
@@ -16450,7 +16450,7 @@
       <c r="A63" s="4" t="s">
         <v>391</v>
       </c>
-      <c r="B63" s="12" t="s">
+      <c r="B63" s="11" t="s">
         <v>393</v>
       </c>
       <c r="C63" s="4"/>
@@ -16464,7 +16464,7 @@
       <c r="A64" s="4" t="s">
         <v>397</v>
       </c>
-      <c r="B64" s="12" t="s">
+      <c r="B64" s="11" t="s">
         <v>398</v>
       </c>
       <c r="C64" s="4"/>
@@ -16478,7 +16478,7 @@
       <c r="A65" s="4" t="s">
         <v>394</v>
       </c>
-      <c r="B65" s="12" t="s">
+      <c r="B65" s="11" t="s">
         <v>395</v>
       </c>
       <c r="C65" s="4"/>
@@ -16492,7 +16492,7 @@
       <c r="A66" s="4" t="s">
         <v>400</v>
       </c>
-      <c r="B66" s="12" t="s">
+      <c r="B66" s="11" t="s">
         <v>402</v>
       </c>
       <c r="C66" s="4"/>
@@ -16506,7 +16506,7 @@
       <c r="A67" s="4" t="s">
         <v>403</v>
       </c>
-      <c r="B67" s="12" t="s">
+      <c r="B67" s="11" t="s">
         <v>404</v>
       </c>
       <c r="C67" s="4"/>
@@ -16520,7 +16520,7 @@
       <c r="A68" s="4" t="s">
         <v>406</v>
       </c>
-      <c r="B68" s="12" t="s">
+      <c r="B68" s="11" t="s">
         <v>407</v>
       </c>
       <c r="C68" s="4"/>
@@ -16534,7 +16534,7 @@
       <c r="A69" s="4" t="s">
         <v>409</v>
       </c>
-      <c r="B69" s="12" t="s">
+      <c r="B69" s="11" t="s">
         <v>410</v>
       </c>
       <c r="C69" s="4"/>
@@ -16548,7 +16548,7 @@
       <c r="A70" s="4" t="s">
         <v>412</v>
       </c>
-      <c r="B70" s="12" t="s">
+      <c r="B70" s="11" t="s">
         <v>413</v>
       </c>
       <c r="C70" s="4"/>
@@ -16562,7 +16562,7 @@
       <c r="A71" s="4" t="s">
         <v>415</v>
       </c>
-      <c r="B71" s="12" t="s">
+      <c r="B71" s="11" t="s">
         <v>416</v>
       </c>
       <c r="C71" s="4"/>
@@ -16576,7 +16576,7 @@
       <c r="A72" s="4" t="s">
         <v>418</v>
       </c>
-      <c r="B72" s="12" t="s">
+      <c r="B72" s="11" t="s">
         <v>419</v>
       </c>
       <c r="C72" s="4"/>
@@ -16590,7 +16590,7 @@
       <c r="A73" s="4" t="s">
         <v>421</v>
       </c>
-      <c r="B73" s="12" t="s">
+      <c r="B73" s="11" t="s">
         <v>422</v>
       </c>
       <c r="C73" s="4"/>
@@ -16604,7 +16604,7 @@
       <c r="A74" s="4" t="s">
         <v>424</v>
       </c>
-      <c r="B74" s="12" t="s">
+      <c r="B74" s="11" t="s">
         <v>426</v>
       </c>
       <c r="C74" s="4"/>
@@ -16618,7 +16618,7 @@
       <c r="A75" s="4" t="s">
         <v>427</v>
       </c>
-      <c r="B75" s="12" t="s">
+      <c r="B75" s="11" t="s">
         <v>428</v>
       </c>
       <c r="C75" s="4"/>
@@ -16632,7 +16632,7 @@
       <c r="A76" s="4" t="s">
         <v>430</v>
       </c>
-      <c r="B76" s="12" t="s">
+      <c r="B76" s="11" t="s">
         <v>432</v>
       </c>
       <c r="C76" s="4"/>
@@ -16646,7 +16646,7 @@
       <c r="A77" s="4" t="s">
         <v>433</v>
       </c>
-      <c r="B77" s="12" t="s">
+      <c r="B77" s="11" t="s">
         <v>434</v>
       </c>
       <c r="C77" s="4"/>
@@ -16660,7 +16660,7 @@
       <c r="A78" s="4" t="s">
         <v>436</v>
       </c>
-      <c r="B78" s="12" t="s">
+      <c r="B78" s="11" t="s">
         <v>437</v>
       </c>
       <c r="C78" s="4"/>
@@ -16674,7 +16674,7 @@
       <c r="A79" s="4" t="s">
         <v>439</v>
       </c>
-      <c r="B79" s="12" t="s">
+      <c r="B79" s="11" t="s">
         <v>440</v>
       </c>
       <c r="C79" s="4"/>
@@ -16688,7 +16688,7 @@
       <c r="A80" s="4" t="s">
         <v>442</v>
       </c>
-      <c r="B80" s="12" t="s">
+      <c r="B80" s="11" t="s">
         <v>444</v>
       </c>
       <c r="C80" s="4"/>
@@ -16702,7 +16702,7 @@
       <c r="A81" s="4" t="s">
         <v>445</v>
       </c>
-      <c r="B81" s="12" t="s">
+      <c r="B81" s="11" t="s">
         <v>446</v>
       </c>
       <c r="C81" s="4"/>
@@ -16716,7 +16716,7 @@
       <c r="A82" s="4" t="s">
         <v>448</v>
       </c>
-      <c r="B82" s="12" t="s">
+      <c r="B82" s="11" t="s">
         <v>449</v>
       </c>
       <c r="C82" s="4"/>
@@ -16730,7 +16730,7 @@
       <c r="A83" s="4" t="s">
         <v>451</v>
       </c>
-      <c r="B83" s="12" t="s">
+      <c r="B83" s="11" t="s">
         <v>452</v>
       </c>
       <c r="C83" s="4"/>
@@ -16744,7 +16744,7 @@
       <c r="A84" s="4" t="s">
         <v>454</v>
       </c>
-      <c r="B84" s="12" t="s">
+      <c r="B84" s="11" t="s">
         <v>455</v>
       </c>
       <c r="C84" s="4"/>
@@ -16758,7 +16758,7 @@
       <c r="A85" s="4" t="s">
         <v>457</v>
       </c>
-      <c r="B85" s="12" t="s">
+      <c r="B85" s="11" t="s">
         <v>458</v>
       </c>
       <c r="C85" s="4"/>
@@ -16772,7 +16772,7 @@
       <c r="A86" s="4" t="s">
         <v>460</v>
       </c>
-      <c r="B86" s="12" t="s">
+      <c r="B86" s="11" t="s">
         <v>461</v>
       </c>
       <c r="C86" s="4"/>
@@ -16786,7 +16786,7 @@
       <c r="A87" s="4" t="s">
         <v>463</v>
       </c>
-      <c r="B87" s="12" t="s">
+      <c r="B87" s="11" t="s">
         <v>465</v>
       </c>
       <c r="C87" s="4"/>
@@ -16800,7 +16800,7 @@
       <c r="A88" s="4" t="s">
         <v>466</v>
       </c>
-      <c r="B88" s="12" t="s">
+      <c r="B88" s="11" t="s">
         <v>467</v>
       </c>
       <c r="C88" s="4"/>
@@ -16814,7 +16814,7 @@
       <c r="A89" s="4" t="s">
         <v>469</v>
       </c>
-      <c r="B89" s="12" t="s">
+      <c r="B89" s="11" t="s">
         <v>471</v>
       </c>
       <c r="C89" s="4"/>
@@ -16828,7 +16828,7 @@
       <c r="A90" s="4" t="s">
         <v>472</v>
       </c>
-      <c r="B90" s="12" t="s">
+      <c r="B90" s="11" t="s">
         <v>473</v>
       </c>
       <c r="C90" s="4"/>
@@ -16842,7 +16842,7 @@
       <c r="A91" s="4" t="s">
         <v>475</v>
       </c>
-      <c r="B91" s="12" t="s">
+      <c r="B91" s="11" t="s">
         <v>476</v>
       </c>
       <c r="C91" s="4"/>
@@ -16856,7 +16856,7 @@
       <c r="A92" s="4" t="s">
         <v>478</v>
       </c>
-      <c r="B92" s="12" t="s">
+      <c r="B92" s="11" t="s">
         <v>479</v>
       </c>
       <c r="C92" s="4"/>
@@ -16870,7 +16870,7 @@
       <c r="A93" s="4" t="s">
         <v>481</v>
       </c>
-      <c r="B93" s="12" t="s">
+      <c r="B93" s="11" t="s">
         <v>482</v>
       </c>
       <c r="C93" s="4"/>
@@ -16884,7 +16884,7 @@
       <c r="A94" s="4" t="s">
         <v>484</v>
       </c>
-      <c r="B94" s="12" t="s">
+      <c r="B94" s="11" t="s">
         <v>485</v>
       </c>
       <c r="C94" s="4"/>
@@ -16898,7 +16898,7 @@
       <c r="A95" s="4" t="s">
         <v>487</v>
       </c>
-      <c r="B95" s="12" t="s">
+      <c r="B95" s="11" t="s">
         <v>488</v>
       </c>
       <c r="C95" s="4"/>
@@ -16912,7 +16912,7 @@
       <c r="A96" s="4" t="s">
         <v>490</v>
       </c>
-      <c r="B96" s="12" t="s">
+      <c r="B96" s="11" t="s">
         <v>492</v>
       </c>
       <c r="C96" s="4"/>
@@ -16926,7 +16926,7 @@
       <c r="A97" s="4" t="s">
         <v>493</v>
       </c>
-      <c r="B97" s="12" t="s">
+      <c r="B97" s="11" t="s">
         <v>495</v>
       </c>
       <c r="C97" s="4"/>
@@ -16940,7 +16940,7 @@
       <c r="A98" s="4" t="s">
         <v>497</v>
       </c>
-      <c r="B98" s="12" t="s">
+      <c r="B98" s="11" t="s">
         <v>498</v>
       </c>
       <c r="C98" s="4"/>
@@ -16954,7 +16954,7 @@
       <c r="A99" s="4" t="s">
         <v>500</v>
       </c>
-      <c r="B99" s="12" t="s">
+      <c r="B99" s="11" t="s">
         <v>501</v>
       </c>
       <c r="C99" s="4"/>
@@ -16968,7 +16968,7 @@
       <c r="A100" s="4" t="s">
         <v>499</v>
       </c>
-      <c r="B100" s="12" t="s">
+      <c r="B100" s="11" t="s">
         <v>503</v>
       </c>
       <c r="C100" s="4"/>
@@ -16982,7 +16982,7 @@
       <c r="A101" s="4" t="s">
         <v>505</v>
       </c>
-      <c r="B101" s="12" t="s">
+      <c r="B101" s="11" t="s">
         <v>506</v>
       </c>
       <c r="C101" s="4"/>
@@ -16996,7 +16996,7 @@
       <c r="A102" s="4" t="s">
         <v>508</v>
       </c>
-      <c r="B102" s="12" t="s">
+      <c r="B102" s="11" t="s">
         <v>509</v>
       </c>
       <c r="C102" s="4"/>
@@ -17010,7 +17010,7 @@
       <c r="A103" s="4" t="s">
         <v>511</v>
       </c>
-      <c r="B103" s="12" t="s">
+      <c r="B103" s="11" t="s">
         <v>512</v>
       </c>
       <c r="C103" s="4"/>
@@ -17024,7 +17024,7 @@
       <c r="A104" s="4" t="s">
         <v>514</v>
       </c>
-      <c r="B104" s="12" t="s">
+      <c r="B104" s="11" t="s">
         <v>516</v>
       </c>
       <c r="C104" s="4"/>
@@ -17038,7 +17038,7 @@
       <c r="A105" s="4" t="s">
         <v>519</v>
       </c>
-      <c r="B105" s="12" t="s">
+      <c r="B105" s="11" t="s">
         <v>520</v>
       </c>
       <c r="C105" s="4"/>
@@ -17052,7 +17052,7 @@
       <c r="A106" s="4" t="s">
         <v>522</v>
       </c>
-      <c r="B106" s="12" t="s">
+      <c r="B106" s="11" t="s">
         <v>523</v>
       </c>
       <c r="C106" s="4"/>
@@ -17066,7 +17066,7 @@
       <c r="A107" s="4" t="s">
         <v>525</v>
       </c>
-      <c r="B107" s="12" t="s">
+      <c r="B107" s="11" t="s">
         <v>526</v>
       </c>
       <c r="C107" s="4"/>
@@ -17080,7 +17080,7 @@
       <c r="A108" s="4" t="s">
         <v>528</v>
       </c>
-      <c r="B108" s="12" t="s">
+      <c r="B108" s="11" t="s">
         <v>529</v>
       </c>
       <c r="C108" s="4"/>
@@ -17094,7 +17094,7 @@
       <c r="A109" s="4" t="s">
         <v>531</v>
       </c>
-      <c r="B109" s="12" t="s">
+      <c r="B109" s="11" t="s">
         <v>532</v>
       </c>
       <c r="C109" s="4"/>
@@ -17108,7 +17108,7 @@
       <c r="A110" s="4" t="s">
         <v>534</v>
       </c>
-      <c r="B110" s="12" t="s">
+      <c r="B110" s="11" t="s">
         <v>535</v>
       </c>
       <c r="C110" s="4"/>
@@ -17122,7 +17122,7 @@
       <c r="A111" s="4" t="s">
         <v>537</v>
       </c>
-      <c r="B111" s="12" t="s">
+      <c r="B111" s="11" t="s">
         <v>538</v>
       </c>
       <c r="C111" s="4"/>
@@ -17136,7 +17136,7 @@
       <c r="A112" s="4" t="s">
         <v>540</v>
       </c>
-      <c r="B112" s="12" t="s">
+      <c r="B112" s="11" t="s">
         <v>541</v>
       </c>
       <c r="C112" s="4"/>
@@ -17150,7 +17150,7 @@
       <c r="A113" s="4" t="s">
         <v>543</v>
       </c>
-      <c r="B113" s="12" t="s">
+      <c r="B113" s="11" t="s">
         <v>544</v>
       </c>
       <c r="C113" s="4"/>
@@ -17164,7 +17164,7 @@
       <c r="A114" s="4" t="s">
         <v>546</v>
       </c>
-      <c r="B114" s="12" t="s">
+      <c r="B114" s="11" t="s">
         <v>547</v>
       </c>
       <c r="C114" s="4"/>
@@ -17178,7 +17178,7 @@
       <c r="A115" s="4" t="s">
         <v>549</v>
       </c>
-      <c r="B115" s="12" t="s">
+      <c r="B115" s="11" t="s">
         <v>550</v>
       </c>
       <c r="C115" s="4"/>
@@ -17192,7 +17192,7 @@
       <c r="A116" s="4" t="s">
         <v>552</v>
       </c>
-      <c r="B116" s="12" t="s">
+      <c r="B116" s="11" t="s">
         <v>553</v>
       </c>
       <c r="C116" s="4"/>
@@ -17206,7 +17206,7 @@
       <c r="A117" s="4" t="s">
         <v>555</v>
       </c>
-      <c r="B117" s="12" t="s">
+      <c r="B117" s="11" t="s">
         <v>556</v>
       </c>
       <c r="C117" s="4"/>
@@ -17220,7 +17220,7 @@
       <c r="A118" s="4" t="s">
         <v>558</v>
       </c>
-      <c r="B118" s="12" t="s">
+      <c r="B118" s="11" t="s">
         <v>559</v>
       </c>
       <c r="C118" s="4"/>
@@ -17234,7 +17234,7 @@
       <c r="A119" s="4" t="s">
         <v>561</v>
       </c>
-      <c r="B119" s="12" t="s">
+      <c r="B119" s="11" t="s">
         <v>562</v>
       </c>
       <c r="C119" s="4"/>
@@ -17248,7 +17248,7 @@
       <c r="A120" s="4" t="s">
         <v>564</v>
       </c>
-      <c r="B120" s="12" t="s">
+      <c r="B120" s="11" t="s">
         <v>565</v>
       </c>
       <c r="C120" s="4"/>
@@ -17262,7 +17262,7 @@
       <c r="A121" s="4" t="s">
         <v>567</v>
       </c>
-      <c r="B121" s="12" t="s">
+      <c r="B121" s="11" t="s">
         <v>568</v>
       </c>
       <c r="C121" s="4"/>
@@ -17276,7 +17276,7 @@
       <c r="A122" s="4" t="s">
         <v>570</v>
       </c>
-      <c r="B122" s="12" t="s">
+      <c r="B122" s="11" t="s">
         <v>572</v>
       </c>
       <c r="C122" s="4"/>
@@ -17290,7 +17290,7 @@
       <c r="A123" s="4" t="s">
         <v>573</v>
       </c>
-      <c r="B123" s="12" t="s">
+      <c r="B123" s="11" t="s">
         <v>574</v>
       </c>
       <c r="C123" s="4"/>
@@ -17304,7 +17304,7 @@
       <c r="A124" s="4" t="s">
         <v>576</v>
       </c>
-      <c r="B124" s="12" t="s">
+      <c r="B124" s="11" t="s">
         <v>577</v>
       </c>
       <c r="C124" s="4"/>
@@ -17318,7 +17318,7 @@
       <c r="A125" s="4" t="s">
         <v>579</v>
       </c>
-      <c r="B125" s="12" t="s">
+      <c r="B125" s="11" t="s">
         <v>580</v>
       </c>
       <c r="C125" s="4"/>
@@ -17332,7 +17332,7 @@
       <c r="A126" s="4" t="s">
         <v>582</v>
       </c>
-      <c r="B126" s="12" t="s">
+      <c r="B126" s="11" t="s">
         <v>583</v>
       </c>
       <c r="C126" s="4"/>
@@ -17346,7 +17346,7 @@
       <c r="A127" s="4" t="s">
         <v>585</v>
       </c>
-      <c r="B127" s="12" t="s">
+      <c r="B127" s="11" t="s">
         <v>586</v>
       </c>
       <c r="C127" s="4"/>
@@ -17360,7 +17360,7 @@
       <c r="A128" s="4" t="s">
         <v>588</v>
       </c>
-      <c r="B128" s="12" t="s">
+      <c r="B128" s="11" t="s">
         <v>590</v>
       </c>
       <c r="C128" s="4"/>
@@ -17374,7 +17374,7 @@
       <c r="A129" s="4" t="s">
         <v>591</v>
       </c>
-      <c r="B129" s="12" t="s">
+      <c r="B129" s="11" t="s">
         <v>593</v>
       </c>
       <c r="C129" s="4"/>
@@ -17388,7 +17388,7 @@
       <c r="A130" s="4" t="s">
         <v>594</v>
       </c>
-      <c r="B130" s="12" t="s">
+      <c r="B130" s="11" t="s">
         <v>595</v>
       </c>
       <c r="C130" s="4"/>
@@ -17402,7 +17402,7 @@
       <c r="A131" s="4" t="s">
         <v>597</v>
       </c>
-      <c r="B131" s="12" t="s">
+      <c r="B131" s="11" t="s">
         <v>598</v>
       </c>
       <c r="C131" s="4"/>
@@ -17416,7 +17416,7 @@
       <c r="A132" s="4" t="s">
         <v>600</v>
       </c>
-      <c r="B132" s="12" t="s">
+      <c r="B132" s="11" t="s">
         <v>601</v>
       </c>
       <c r="C132" s="4"/>
@@ -17430,7 +17430,7 @@
       <c r="A133" s="4" t="s">
         <v>603</v>
       </c>
-      <c r="B133" s="12" t="s">
+      <c r="B133" s="11" t="s">
         <v>604</v>
       </c>
       <c r="C133" s="4"/>
@@ -17444,7 +17444,7 @@
       <c r="A134" s="4" t="s">
         <v>606</v>
       </c>
-      <c r="B134" s="12" t="s">
+      <c r="B134" s="11" t="s">
         <v>607</v>
       </c>
       <c r="C134" s="4"/>
@@ -17458,7 +17458,7 @@
       <c r="A135" s="4" t="s">
         <v>609</v>
       </c>
-      <c r="B135" s="12" t="s">
+      <c r="B135" s="11" t="s">
         <v>610</v>
       </c>
       <c r="C135" s="4"/>
@@ -17472,7 +17472,7 @@
       <c r="A136" s="4" t="s">
         <v>612</v>
       </c>
-      <c r="B136" s="12" t="s">
+      <c r="B136" s="11" t="s">
         <v>613</v>
       </c>
       <c r="C136" s="4"/>
@@ -17486,7 +17486,7 @@
       <c r="A137" s="4" t="s">
         <v>615</v>
       </c>
-      <c r="B137" s="12" t="s">
+      <c r="B137" s="11" t="s">
         <v>616</v>
       </c>
       <c r="C137" s="4"/>
@@ -17500,7 +17500,7 @@
       <c r="A138" s="4" t="s">
         <v>618</v>
       </c>
-      <c r="B138" s="12" t="s">
+      <c r="B138" s="11" t="s">
         <v>619</v>
       </c>
       <c r="C138" s="4"/>
@@ -17514,7 +17514,7 @@
       <c r="A139" s="4" t="s">
         <v>620</v>
       </c>
-      <c r="B139" s="12" t="s">
+      <c r="B139" s="11" t="s">
         <v>621</v>
       </c>
       <c r="C139" s="4"/>
@@ -17528,7 +17528,7 @@
       <c r="A140" s="4" t="s">
         <v>623</v>
       </c>
-      <c r="B140" s="12" t="s">
+      <c r="B140" s="11" t="s">
         <v>625</v>
       </c>
       <c r="C140" s="4"/>
@@ -17544,7 +17544,7 @@
       <c r="A141" s="4" t="s">
         <v>627</v>
       </c>
-      <c r="B141" s="16" t="s">
+      <c r="B141" s="15" t="s">
         <v>635</v>
       </c>
       <c r="C141" s="4"/>

--- a/Glossary template - APG 5885 - Sem 1, 2021 - SEU.xlsx
+++ b/Glossary template - APG 5885 - Sem 1, 2021 - SEU.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hongtao45\Desktop\Translator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F2BC245-89D5-492E-BE43-AFF24ACF7A54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{046156F4-E9C3-41A6-B707-D270F03B6F68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="W1 - Employment" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="W6 - Business-Finance" sheetId="5" r:id="rId4"/>
     <sheet name="W7 - Business-Taxation" sheetId="6" r:id="rId5"/>
     <sheet name="W9 - Tourism" sheetId="13" r:id="rId6"/>
-    <sheet name="W9 + W10 - Medicine- GPs" sheetId="8" r:id="rId7"/>
+    <sheet name="W9 &amp; W10 - Medicine- GPs" sheetId="8" r:id="rId7"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
@@ -13547,7 +13547,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:F107"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
@@ -15573,7 +15573,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:F146"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
